--- a/data_output/prism_passive/all_passive_out_emg_sol_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,148 +513,148 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.406191385894477</v>
+        <v>3.4061914771989854</v>
       </c>
       <c r="C2">
-        <v>4.3434249408368162</v>
+        <v>4.3434250009749702</v>
       </c>
       <c r="D2">
-        <v>17.193982778677324</v>
+        <v>17.193982905023407</v>
       </c>
       <c r="E2">
-        <v>12.398174431284312</v>
+        <v>12.398174429163317</v>
       </c>
       <c r="F2">
-        <v>12.449730298072813</v>
+        <v>12.449729900964504</v>
       </c>
       <c r="G2">
-        <v>8.3307416855655401</v>
+        <v>8.3307416880469027</v>
       </c>
       <c r="H2">
-        <v>19.741318398063271</v>
+        <v>19.741318385782527</v>
       </c>
       <c r="I2">
-        <v>1.8992993909634648</v>
+        <v>1.899299380086966</v>
       </c>
       <c r="J2">
-        <v>23.129822784885061</v>
+        <v>23.129822946683912</v>
       </c>
       <c r="K2">
-        <v>14.002754346312813</v>
+        <v>14.002754469648654</v>
       </c>
       <c r="L2">
-        <v>2.5463908232949857</v>
+        <v>2.5463908039751422</v>
       </c>
       <c r="M2">
-        <v>3.8236837521467444</v>
+        <v>3.8236836873366995</v>
       </c>
       <c r="N2">
-        <v>0.17605297097357331</v>
+        <v>0.17605297047830198</v>
       </c>
       <c r="O2">
-        <v>5.2062710910847887</v>
+        <v>5.2062710621080983</v>
       </c>
       <c r="P2">
-        <v>7.9794907503228174</v>
+        <v>7.9794906489936892</v>
       </c>
       <c r="Q2">
-        <v>3.7320061178388841</v>
+        <v>3.7320060989913899</v>
       </c>
       <c r="R2">
-        <v>6.3177588788154129</v>
+        <v>6.317758840049482</v>
       </c>
       <c r="S2">
-        <v>7.1582877558058957</v>
+        <v>7.1582877234108739</v>
       </c>
       <c r="T2">
-        <v>0.73562314161845488</v>
+        <v>0.73562316242314496</v>
       </c>
       <c r="U2">
-        <v>4.7296062389617806</v>
+        <v>4.7296062006417205</v>
       </c>
       <c r="V2">
-        <v>14.420772573345877</v>
+        <v>14.420772527357276</v>
       </c>
       <c r="W2">
-        <v>4.7476575095154727</v>
+        <v>4.7476574966224216</v>
       </c>
       <c r="X2">
-        <v>0.63560539435617047</v>
+        <v>0.63560537889182012</v>
       </c>
       <c r="Y2">
-        <v>1.0707556349076219</v>
+        <v>1.0707556212799134</v>
       </c>
       <c r="AA2">
-        <v>7.8247753111291614</v>
+        <v>7.8247753531822539</v>
       </c>
       <c r="AB2">
-        <v>1.5352766973505112</v>
+        <v>1.53527669397914</v>
       </c>
       <c r="AC2">
-        <v>7.1060881945374721</v>
+        <v>7.1060882442313957</v>
       </c>
       <c r="AD2">
-        <v>5.267961480833578</v>
+        <v>5.2679615091486154</v>
       </c>
       <c r="AE2">
-        <v>7.1845201925928661</v>
+        <v>7.1845202273058604</v>
       </c>
       <c r="AF2">
-        <v>8.7336164908049305</v>
+        <v>8.7336163222653251</v>
       </c>
       <c r="AG2">
-        <v>12.304812545780912</v>
+        <v>12.304812663831601</v>
       </c>
       <c r="AH2">
-        <v>0.96984491609648682</v>
+        <v>0.96984489320064893</v>
       </c>
       <c r="AI2">
-        <v>21.20481122690088</v>
+        <v>21.20481102917223</v>
       </c>
       <c r="AJ2">
-        <v>12.95995655500335</v>
+        <v>12.959956694255357</v>
       </c>
       <c r="AK2">
-        <v>2.4803844759195686</v>
+        <v>2.480384451476132</v>
       </c>
       <c r="AL2">
-        <v>2.1124394780599389</v>
+        <v>2.1124394597694924</v>
       </c>
       <c r="AM2">
-        <v>0.22221941372732651</v>
+        <v>0.22221940838014884</v>
       </c>
       <c r="AN2">
-        <v>3.1804347346360902</v>
+        <v>3.1804347241046571</v>
       </c>
       <c r="AO2">
-        <v>5.5271411536157746</v>
+        <v>5.5271411573699503</v>
       </c>
       <c r="AP2">
-        <v>4.3872787638075215</v>
+        <v>4.3872787524640504</v>
       </c>
       <c r="AQ2">
-        <v>3.658670045250445</v>
+        <v>3.6586700155965675</v>
       </c>
       <c r="AR2">
-        <v>3.9829162843391046</v>
+        <v>3.9829161947379674</v>
       </c>
       <c r="AS2">
-        <v>2.3655502734413587</v>
+        <v>2.3655502813828422</v>
       </c>
       <c r="AT2">
-        <v>0.87988701569476535</v>
+        <v>0.87988701748886522</v>
       </c>
       <c r="AU2">
-        <v>9.165476024465173</v>
+        <v>9.1654760522055945</v>
       </c>
       <c r="AV2">
-        <v>1.6406385980967109</v>
+        <v>1.6406385825191396</v>
       </c>
       <c r="AW2">
-        <v>0.67388187941572919</v>
+        <v>0.67388187560585788</v>
       </c>
       <c r="AX2">
-        <v>0.20566304544439667</v>
+        <v>0.20566304523672443</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -667,148 +662,148 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20.695930758769158</v>
+        <v>20.695930230505503</v>
       </c>
       <c r="C3">
-        <v>4.0972635524219907</v>
+        <v>4.0972635175151764</v>
       </c>
       <c r="D3">
-        <v>5.4099212441065099</v>
+        <v>5.4099213355728715</v>
       </c>
       <c r="E3">
-        <v>24.657369893393366</v>
+        <v>24.657370191818057</v>
       </c>
       <c r="F3">
-        <v>4.8258349549630184</v>
+        <v>4.8258350010422024</v>
       </c>
       <c r="G3">
-        <v>6.8856299774355261</v>
+        <v>6.8856299253945554</v>
       </c>
       <c r="H3">
-        <v>21.750121374665415</v>
+        <v>21.75012122922514</v>
       </c>
       <c r="I3">
-        <v>4.6526747702739222</v>
+        <v>4.6526750030650694</v>
       </c>
       <c r="J3">
-        <v>16.681293280686539</v>
+        <v>16.681293977397647</v>
       </c>
       <c r="K3">
-        <v>6.6677338779409769</v>
+        <v>6.6677340313079068</v>
       </c>
       <c r="L3">
-        <v>3.4177374373592642</v>
+        <v>3.417737356682133</v>
       </c>
       <c r="M3">
-        <v>5.5248155112817621</v>
+        <v>5.5257469051472352</v>
       </c>
       <c r="N3">
-        <v>1.2988961907198597</v>
+        <v>1.2988960876363769</v>
       </c>
       <c r="O3">
-        <v>7.900352178490083</v>
+        <v>7.900352088866569</v>
       </c>
       <c r="P3">
-        <v>5.0205894177637855</v>
+        <v>5.0205893528623662</v>
       </c>
       <c r="Q3">
-        <v>4.0406503261218827</v>
+        <v>4.0406502631283665</v>
       </c>
       <c r="R3">
-        <v>10.000243679201697</v>
+        <v>10.000243686011228</v>
       </c>
       <c r="S3">
-        <v>1.2242076706560703</v>
+        <v>1.2242076969483811</v>
       </c>
       <c r="T3">
-        <v>0.34759417475594956</v>
+        <v>0.34759418360715089</v>
       </c>
       <c r="U3">
-        <v>12.269207366746205</v>
+        <v>12.269207257960867</v>
       </c>
       <c r="V3">
-        <v>8.7411353407049983</v>
+        <v>8.7411353161652983</v>
       </c>
       <c r="W3">
-        <v>1.3168002110660688</v>
+        <v>1.316800211150406</v>
       </c>
       <c r="X3">
-        <v>3.06657561598304</v>
+        <v>3.0665756029827258</v>
       </c>
       <c r="Y3">
-        <v>3.1634394310845302</v>
+        <v>3.1634393934034946</v>
       </c>
       <c r="AA3">
-        <v>6.3401741584191527</v>
+        <v>6.3401743614897121</v>
       </c>
       <c r="AB3">
-        <v>11.185907552779954</v>
+        <v>11.185907561170982</v>
       </c>
       <c r="AC3">
-        <v>5.557583390776383</v>
+        <v>5.5575834192822118</v>
       </c>
       <c r="AD3">
-        <v>9.3339874579269893</v>
+        <v>9.3339874500554441</v>
       </c>
       <c r="AE3">
-        <v>2.411008409360055</v>
+        <v>2.4110082587637045</v>
       </c>
       <c r="AF3">
-        <v>2.4627680803507732</v>
+        <v>2.4627680408521302</v>
       </c>
       <c r="AG3">
-        <v>9.7106570086502249</v>
+        <v>9.7106568591699922</v>
       </c>
       <c r="AH3">
-        <v>2.9088275250525508</v>
+        <v>2.9088275471783662</v>
       </c>
       <c r="AI3">
-        <v>11.849835017588196</v>
+        <v>11.849834852322296</v>
       </c>
       <c r="AJ3">
-        <v>6.8317510008604021</v>
+        <v>6.8317509126516285</v>
       </c>
       <c r="AK3">
-        <v>3.5954484983583215</v>
+        <v>3.5954484463471381</v>
       </c>
       <c r="AL3">
-        <v>3.3983921220464333</v>
+        <v>3.3983921126673051</v>
       </c>
       <c r="AM3">
-        <v>0.49593156014397566</v>
+        <v>0.49593157068700666</v>
       </c>
       <c r="AN3">
-        <v>5.0392132463755788</v>
+        <v>5.0392132211217087</v>
       </c>
       <c r="AO3">
-        <v>3.2801642877990913</v>
+        <v>3.280164200622143</v>
       </c>
       <c r="AP3">
-        <v>0.80024639032940104</v>
+        <v>0.80024638823237937</v>
       </c>
       <c r="AQ3">
-        <v>2.7377288072209267</v>
+        <v>2.7377288265812698</v>
       </c>
       <c r="AR3">
-        <v>1.517899545381258</v>
+        <v>1.5178995444283585</v>
       </c>
       <c r="AS3">
-        <v>0.35084848903958166</v>
+        <v>0.35084851046775861</v>
       </c>
       <c r="AT3">
-        <v>3.5904599834701165</v>
+        <v>3.5904600156208728</v>
       </c>
       <c r="AU3">
-        <v>9.0999150703763121</v>
+        <v>9.0999151052833902</v>
       </c>
       <c r="AV3">
-        <v>1.8035667521675953</v>
+        <v>1.8035667539945233</v>
       </c>
       <c r="AW3">
-        <v>1.4173393278941082</v>
+        <v>1.4173393261397522</v>
       </c>
       <c r="AX3">
-        <v>2.8321478228600832</v>
+        <v>2.8321477875740593</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_sol_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>3.4061914771989854</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>4.3434250009749702</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>17.193982905023407</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>12.398174429163317</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>12.449729900964504</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8.3307416880469027</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>19.741318385782527</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.899299380086966</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>23.129822946683912</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>14.002754469648654</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.5463908039751422</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3.8236836873366995</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.17605297047830198</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>5.2062710621080983</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>7.9794906489936892</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.7320060989913899</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>6.317758840049482</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>7.1582877234108739</v>
@@ -585,55 +474,55 @@
         <v>1.0707556212799134</v>
       </c>
       <c r="AA2">
-        <v>7.8247753531822539</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1.53527669397914</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>7.1060882442313957</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>5.2679615091486154</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>7.1845202273058604</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>8.7336163222653251</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>12.304812663831601</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.96984489320064893</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>21.20481102917223</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>12.959956694255357</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.480384451476132</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>2.1124394597694924</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.22221940838014884</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.1804347241046571</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>5.5271411573699503</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>4.3872787524640504</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>3.6586700155965675</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>3.9829161947379674</v>
@@ -656,61 +545,61 @@
       <c r="AX2">
         <v>0.20566304523672443</v>
       </c>
+      <c r="AY2">
+        <v>1.3895199213764802</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>20.695930230505503</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4.0972635175151764</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5.4099213355728715</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>24.657370191818057</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4.8258350010422024</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>6.8856299253945554</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>21.75012122922514</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.6526750030650694</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>16.681293977397647</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>6.6677340313079068</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>3.417737356682133</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>5.5257469051472352</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.2988960876363769</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>7.900352088866569</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>5.0205893528623662</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>4.0406502631283665</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>10.000243686011228</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>1.2242076969483811</v>
@@ -734,55 +623,55 @@
         <v>3.1634393934034946</v>
       </c>
       <c r="AA3">
-        <v>6.3401743614897121</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>11.185907561170982</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>5.5575834192822118</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>9.3339874500554441</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>2.4110082587637045</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.4627680408521302</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>9.7106568591699922</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>2.9088275471783662</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>11.849834852322296</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>6.8317509126516285</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>3.5954484463471381</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>3.3983921126673051</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.49593157068700666</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>5.0392132211217087</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>3.280164200622143</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.80024638823237937</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>2.7377288265812698</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>1.5178995444283585</v>
@@ -804,6 +693,9 @@
       </c>
       <c r="AX3">
         <v>2.8321477875740593</v>
+      </c>
+      <c r="AY3">
+        <v>6.4870800731163341</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_sol_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.406191385894477</v>
+        <v>2.9836900550838363</v>
       </c>
       <c r="C2">
-        <v>4.3434249408368162</v>
+        <v>6.317758840049482</v>
       </c>
       <c r="D2">
-        <v>9.8024093294068475</v>
+        <v>3.1804347241046571</v>
       </c>
       <c r="E2">
-        <v>12.398174431284312</v>
+        <v>3.6586700155965675</v>
       </c>
       <c r="F2">
         <v>12.449730298072813</v>
@@ -667,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20.695930758769158</v>
+        <v>7.900352088866569</v>
       </c>
       <c r="C3">
-        <v>4.0972635524219907</v>
+        <v>10.000243686011228</v>
       </c>
       <c r="D3">
-        <v>5.4099212441065898</v>
+        <v>5.0392132211217087</v>
       </c>
       <c r="E3">
-        <v>24.657369893393366</v>
+        <v>1.7873213578991689</v>
       </c>
       <c r="F3">
         <v>4.8258349549630184</v>

--- a/data_output/prism_passive/all_passive_out_emg_sol_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>3.406191385894477</v>
-      </c>
       <c r="C2">
-        <v>4.3434249408368162</v>
+        <v>4.3349142288901845</v>
       </c>
       <c r="D2">
-        <v>9.8024093294068475</v>
+        <v>2.0343940360545134</v>
       </c>
       <c r="E2">
-        <v>12.398174431284312</v>
+        <v>3.817409235023514</v>
       </c>
       <c r="F2">
         <v>12.449730298072813</v>
@@ -667,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20.695930758769158</v>
+        <v>1.2988960876363769</v>
       </c>
       <c r="C3">
-        <v>4.0972635524219907</v>
+        <v>7.900352088866569</v>
       </c>
       <c r="D3">
-        <v>5.4099212441065898</v>
+        <v>0.49593157068700666</v>
       </c>
       <c r="E3">
-        <v>24.657369893393366</v>
+        <v>5.0392132211217087</v>
       </c>
       <c r="F3">
         <v>4.8258349549630184</v>

--- a/data_output/prism_passive/all_passive_out_emg_sol_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -512,146 +512,149 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>3.3345770910023176</v>
+      </c>
       <c r="C2">
+        <v>4.3434250009749702</v>
+      </c>
+      <c r="D2">
+        <v>25.777568099699806</v>
+      </c>
+      <c r="E2">
+        <v>32.222065813857014</v>
+      </c>
+      <c r="F2">
+        <v>12.449729900964504</v>
+      </c>
+      <c r="G2">
+        <v>8.3307416880469027</v>
+      </c>
+      <c r="H2">
+        <v>21.091886666646168</v>
+      </c>
+      <c r="I2">
+        <v>4.678391278820575</v>
+      </c>
+      <c r="J2">
+        <v>25.131306189099742</v>
+      </c>
+      <c r="K2">
+        <v>17.27317916115144</v>
+      </c>
+      <c r="L2">
+        <v>6.247091196881323</v>
+      </c>
+      <c r="M2">
+        <v>3.8236836873366995</v>
+      </c>
+      <c r="O2">
         <v>4.3349142288901845</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>7.9794906489936892</v>
+      </c>
+      <c r="Q2">
+        <v>3.7320060989913899</v>
+      </c>
+      <c r="R2">
+        <v>6.317758840049482</v>
+      </c>
+      <c r="S2">
+        <v>8.7625866212507884</v>
+      </c>
+      <c r="T2">
+        <v>0.60526676764452803</v>
+      </c>
+      <c r="U2">
+        <v>6.0523880813756215</v>
+      </c>
+      <c r="V2">
+        <v>16.457504298404849</v>
+      </c>
+      <c r="W2">
+        <v>8.095158351799018</v>
+      </c>
+      <c r="X2">
+        <v>5.2537737534295292</v>
+      </c>
+      <c r="Y2">
+        <v>1.3525557347417954</v>
+      </c>
+      <c r="AA2">
+        <v>8.5628238731428201</v>
+      </c>
+      <c r="AB2">
+        <v>1.53527669397914</v>
+      </c>
+      <c r="AC2">
+        <v>16.455284387629938</v>
+      </c>
+      <c r="AD2">
+        <v>16.430777352509878</v>
+      </c>
+      <c r="AE2">
+        <v>7.1845202273058604</v>
+      </c>
+      <c r="AF2">
+        <v>8.7336163222653251</v>
+      </c>
+      <c r="AG2">
+        <v>12.487167021777816</v>
+      </c>
+      <c r="AH2">
+        <v>4.2568034693139607</v>
+      </c>
+      <c r="AI2">
+        <v>21.441701847787254</v>
+      </c>
+      <c r="AJ2">
+        <v>16.593782823699012</v>
+      </c>
+      <c r="AK2">
+        <v>4.3914033759464308</v>
+      </c>
+      <c r="AL2">
+        <v>2.1124394597694924</v>
+      </c>
+      <c r="AM2">
         <v>2.0343940360545134</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>3.817409235023514</v>
       </c>
-      <c r="F2">
-        <v>12.449730298072813</v>
-      </c>
-      <c r="G2">
-        <v>8.3307416855655401</v>
-      </c>
-      <c r="H2">
-        <v>19.741318398063271</v>
-      </c>
-      <c r="I2">
-        <v>1.8992993909634648</v>
-      </c>
-      <c r="J2">
-        <v>23.129822784885061</v>
-      </c>
-      <c r="K2">
-        <v>14.002754346312813</v>
-      </c>
-      <c r="L2">
-        <v>2.5463908232949857</v>
-      </c>
-      <c r="M2">
-        <v>3.8236837521467444</v>
-      </c>
-      <c r="O2">
-        <v>2.9836900682220828</v>
-      </c>
-      <c r="P2">
-        <v>7.9794907503228174</v>
-      </c>
-      <c r="Q2">
-        <v>3.7320061178388841</v>
-      </c>
-      <c r="R2">
-        <v>6.3177588788154129</v>
-      </c>
-      <c r="S2">
-        <v>7.1582877558058957</v>
-      </c>
-      <c r="T2">
-        <v>0.60526676885473873</v>
-      </c>
-      <c r="U2">
-        <v>4.7296062389617806</v>
-      </c>
-      <c r="V2">
-        <v>14.420772573345877</v>
-      </c>
-      <c r="W2">
-        <v>4.7542428983067708</v>
-      </c>
-      <c r="X2">
-        <v>0.63560539435617047</v>
-      </c>
-      <c r="Y2">
-        <v>1.0223405364926523</v>
-      </c>
-      <c r="AA2">
-        <v>7.8247753111291614</v>
-      </c>
-      <c r="AB2">
-        <v>1.5352766973505112</v>
-      </c>
-      <c r="AC2">
-        <v>7.1060881945374721</v>
-      </c>
-      <c r="AD2">
-        <v>5.267961480833578</v>
-      </c>
-      <c r="AE2">
-        <v>7.1845201925928661</v>
-      </c>
-      <c r="AF2">
-        <v>8.7336164908049305</v>
-      </c>
-      <c r="AG2">
-        <v>12.304812545780912</v>
-      </c>
-      <c r="AH2">
-        <v>2.5719593837367283</v>
-      </c>
-      <c r="AI2">
-        <v>21.20481122690088</v>
-      </c>
-      <c r="AJ2">
-        <v>12.95995655500335</v>
-      </c>
-      <c r="AK2">
-        <v>2.4803844759195686</v>
-      </c>
-      <c r="AL2">
-        <v>2.1124394780599389</v>
-      </c>
-      <c r="AM2">
-        <v>0.22221941372732651</v>
-      </c>
-      <c r="AN2">
-        <v>3.1804347346360902</v>
-      </c>
       <c r="AO2">
-        <v>5.5271411536157746</v>
+        <v>5.5271411573699503</v>
       </c>
       <c r="AP2">
-        <v>4.4726631240496282</v>
+        <v>4.4726629626431542</v>
       </c>
       <c r="AQ2">
-        <v>3.658670045250445</v>
+        <v>3.6586700155965675</v>
       </c>
       <c r="AR2">
-        <v>3.9829162843391046</v>
+        <v>6.5384626760566302</v>
       </c>
       <c r="AS2">
-        <v>2.3655502734413587</v>
+        <v>2.3655502813828422</v>
       </c>
       <c r="AT2">
-        <v>0.87988701569476535</v>
+        <v>1.3082056392524044</v>
       </c>
       <c r="AU2">
-        <v>9.165476024465173</v>
+        <v>10.120371023972044</v>
       </c>
       <c r="AV2">
-        <v>1.6469841611562153</v>
+        <v>2.7686077412968317</v>
       </c>
       <c r="AW2">
-        <v>0.67388187941572919</v>
+        <v>1.4858081093526274</v>
       </c>
       <c r="AX2">
-        <v>0.20566304544439667</v>
+        <v>0.20571016944865858</v>
       </c>
       <c r="AY2">
-        <v>1.3895199169425401</v>
+        <v>1.3895199213764802</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -659,151 +662,151 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>20.695930230505503</v>
+      </c>
+      <c r="C3">
+        <v>7.4443919067050102</v>
+      </c>
+      <c r="D3">
+        <v>5.4099213355728626</v>
+      </c>
+      <c r="E3">
+        <v>24.657370191818057</v>
+      </c>
+      <c r="F3">
+        <v>6.8340735001024289</v>
+      </c>
+      <c r="G3">
+        <v>7.4084371222331002</v>
+      </c>
+      <c r="H3">
+        <v>21.75012122922514</v>
+      </c>
+      <c r="I3">
+        <v>6.8935412999171843</v>
+      </c>
+      <c r="J3">
+        <v>16.681293977397647</v>
+      </c>
+      <c r="K3">
+        <v>6.6677340313079068</v>
+      </c>
+      <c r="L3">
+        <v>3.417737356682133</v>
+      </c>
+      <c r="M3">
+        <v>13.40770266027415</v>
+      </c>
+      <c r="N3">
         <v>1.2988960876363769</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>7.900352088866569</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>6.8683274745935678</v>
+      </c>
+      <c r="Q3">
+        <v>4.8057292481274434</v>
+      </c>
+      <c r="R3">
+        <v>11.179268750755813</v>
+      </c>
+      <c r="S3">
+        <v>1.420352865814118</v>
+      </c>
+      <c r="T3">
+        <v>0.39053737561208202</v>
+      </c>
+      <c r="U3">
+        <v>12.269207257960867</v>
+      </c>
+      <c r="V3">
+        <v>8.7411353161652983</v>
+      </c>
+      <c r="W3">
+        <v>1.1107931812379011</v>
+      </c>
+      <c r="X3">
+        <v>3.0665756029827258</v>
+      </c>
+      <c r="Y3">
+        <v>3.1634393934034946</v>
+      </c>
+      <c r="AA3">
+        <v>6.3401743614897121</v>
+      </c>
+      <c r="AB3">
+        <v>20.066901821547951</v>
+      </c>
+      <c r="AC3">
+        <v>6.5075388034314985</v>
+      </c>
+      <c r="AD3">
+        <v>9.3339874500554441</v>
+      </c>
+      <c r="AE3">
+        <v>8.1782789712486696</v>
+      </c>
+      <c r="AF3">
+        <v>3.5513037908051865</v>
+      </c>
+      <c r="AG3">
+        <v>9.7106568591699922</v>
+      </c>
+      <c r="AH3">
+        <v>1.346968865859457</v>
+      </c>
+      <c r="AI3">
+        <v>11.849834852322296</v>
+      </c>
+      <c r="AJ3">
+        <v>6.8317509126516285</v>
+      </c>
+      <c r="AK3">
+        <v>3.5954484463471381</v>
+      </c>
+      <c r="AL3">
+        <v>7.1846865319190885</v>
+      </c>
+      <c r="AM3">
         <v>0.49593157068700666</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>5.0392132211217087</v>
       </c>
-      <c r="F3">
-        <v>4.8258349549630184</v>
-      </c>
-      <c r="G3">
-        <v>6.8856299774355261</v>
-      </c>
-      <c r="H3">
-        <v>21.750121374665415</v>
-      </c>
-      <c r="I3">
-        <v>6.8935409501138478</v>
-      </c>
-      <c r="J3">
-        <v>16.681293280686539</v>
-      </c>
-      <c r="K3">
-        <v>6.6677338779409769</v>
-      </c>
-      <c r="L3">
-        <v>3.4177374373592642</v>
-      </c>
-      <c r="M3">
-        <v>5.5248155112817621</v>
-      </c>
-      <c r="N3">
-        <v>1.2988961907198597</v>
-      </c>
-      <c r="O3">
-        <v>7.900352178490083</v>
-      </c>
-      <c r="P3">
-        <v>5.0205894177637855</v>
-      </c>
-      <c r="Q3">
-        <v>4.0406503261218827</v>
-      </c>
-      <c r="R3">
-        <v>10.000243679201697</v>
-      </c>
-      <c r="S3">
-        <v>1.4203528208147547</v>
-      </c>
-      <c r="T3">
-        <v>0.3889188395587147</v>
-      </c>
-      <c r="U3">
-        <v>12.269207366746205</v>
-      </c>
-      <c r="V3">
-        <v>8.7411353407049983</v>
-      </c>
-      <c r="W3">
-        <v>1.1107930009713054</v>
-      </c>
-      <c r="X3">
-        <v>3.06657561598304</v>
-      </c>
-      <c r="Y3">
-        <v>3.1634394310845302</v>
-      </c>
-      <c r="AA3">
-        <v>6.3401741584191527</v>
-      </c>
-      <c r="AB3">
-        <v>11.185907552779954</v>
-      </c>
-      <c r="AC3">
-        <v>6.5075387783609528</v>
-      </c>
-      <c r="AD3">
-        <v>9.3339874579269893</v>
-      </c>
-      <c r="AE3">
-        <v>2.411008409360055</v>
-      </c>
-      <c r="AF3">
-        <v>2.4627680803507732</v>
-      </c>
-      <c r="AG3">
-        <v>9.7106570086502249</v>
-      </c>
-      <c r="AH3">
-        <v>1.3469688700565117</v>
-      </c>
-      <c r="AI3">
-        <v>11.849835017588196</v>
-      </c>
-      <c r="AJ3">
-        <v>6.8317510008604021</v>
-      </c>
-      <c r="AK3">
-        <v>3.5954484983583215</v>
-      </c>
-      <c r="AL3">
-        <v>3.3983921220464333</v>
-      </c>
-      <c r="AM3">
-        <v>0.49593156014397566</v>
-      </c>
-      <c r="AN3">
-        <v>5.0392132463755788</v>
-      </c>
       <c r="AO3">
-        <v>3.2801642877990913</v>
+        <v>3.9473622355610636</v>
       </c>
       <c r="AP3">
-        <v>0.70654621749307078</v>
+        <v>1.0864165896335778</v>
       </c>
       <c r="AQ3">
-        <v>1.787321356461004</v>
+        <v>3.052185905350814</v>
       </c>
       <c r="AR3">
-        <v>1.517899545381258</v>
+        <v>1.5178995444283585</v>
       </c>
       <c r="AS3">
-        <v>0.35084848903958166</v>
+        <v>0.28460175685029343</v>
       </c>
       <c r="AT3">
-        <v>3.5904599834701165</v>
+        <v>3.5904600156208728</v>
       </c>
       <c r="AU3">
-        <v>9.0999150703763121</v>
+        <v>9.0999151052833902</v>
       </c>
       <c r="AV3">
-        <v>1.8021548061638897</v>
+        <v>1.8021548107519023</v>
       </c>
       <c r="AW3">
-        <v>1.4173393278941082</v>
+        <v>1.4173393261397522</v>
       </c>
       <c r="AX3">
-        <v>2.8321478228600832</v>
+        <v>2.8321477875740593</v>
       </c>
       <c r="AY3">
-        <v>6.4870800978785015</v>
+        <v>6.7243695135805499</v>
       </c>
     </row>
   </sheetData>
